--- a/data/trans_dic/P16A18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Provincia-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1209,7 +1209,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Provincia-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.02571363586486897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02761933648656537</v>
+        <v>0.02761933648656538</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0679688065605087</v>
+        <v>0.07306595504375428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07575352438280476</v>
+        <v>0.07923911881560329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008879423467666321</v>
+        <v>0.008772172531692431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01200830687419351</v>
+        <v>0.01148931163718099</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1670722635825342</v>
+        <v>0.1656416463905565</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.173222830055244</v>
+        <v>0.1836743416022505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05196359923490289</v>
+        <v>0.05140774305211793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05856694753779287</v>
+        <v>0.0553846262547665</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06925848591774862</v>
+        <v>0.06773848446207481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04772519416496732</v>
+        <v>0.04939966234784545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05814349771453738</v>
+        <v>0.0562910417725923</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007283516908250404</v>
+        <v>0.007186523623895181</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1301814150844722</v>
+        <v>0.1299705173185115</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1082383120111334</v>
+        <v>0.1085733537578787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1172830932817645</v>
+        <v>0.1148294125640656</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03633137491566055</v>
+        <v>0.03687255441922061</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01777927598382128</v>
+        <v>0.01788757433318305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0943499039741674</v>
+        <v>0.09492361250478801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01203912574611437</v>
+        <v>0.008959993326672211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007526198130647067</v>
+        <v>0.007634507951411334</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07029516844281178</v>
+        <v>0.07028808155298681</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1896284356990352</v>
+        <v>0.1901522798424369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05352536579925567</v>
+        <v>0.05685203514056118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05027246799255359</v>
+        <v>0.04733093489713375</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.05994666473265629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05483210024173281</v>
+        <v>0.0548321002417328</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06946269592513751</v>
+        <v>0.07096951290930494</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05861528174982002</v>
+        <v>0.05624619051611577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03697961645744912</v>
+        <v>0.03464636804600297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03065303908519863</v>
+        <v>0.02824807697593736</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.149192752103262</v>
+        <v>0.147772181223163</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1316386004010644</v>
+        <v>0.1287422156058951</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09954625954099407</v>
+        <v>0.09892869281835127</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09979326558639874</v>
+        <v>0.09701075189017903</v>
       </c>
     </row>
     <row r="16">
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07552814839394054</v>
+        <v>0.07870783771724196</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1097288038688799</v>
+        <v>0.106390800409541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05052084932378393</v>
+        <v>0.05022352628387215</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1990353530226624</v>
+        <v>0.1933072896294605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2197859778925554</v>
+        <v>0.2230650853784832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1392209527811321</v>
+        <v>0.1407022732823908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0241888923502426</v>
+        <v>0.02259734883465778</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09276276607677919</v>
+        <v>0.09090150823445026</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07865348062227252</v>
+        <v>0.08235699016457249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01601688800119475</v>
+        <v>0.01615466560942435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.008928640590580701</v>
+        <v>0.008754709241667135</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1896342514253993</v>
+        <v>0.1886307341015984</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1739782035754592</v>
+        <v>0.1886229169890872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07419331548926271</v>
+        <v>0.0718729222192999</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05981624762263498</v>
+        <v>0.05626723796071951</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.0782961484535214</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05451281092883809</v>
+        <v>0.05451281092883808</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05027467766763109</v>
+        <v>0.0497018595058903</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04775201045015076</v>
+        <v>0.04645817780247129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05547544773617044</v>
+        <v>0.05668221743869163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03635749884392973</v>
+        <v>0.03624621429303975</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09925757713580688</v>
+        <v>0.1011788184854308</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09621574465587614</v>
+        <v>0.09281809407475639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1064514015085099</v>
+        <v>0.1072221601065645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07923800169425943</v>
+        <v>0.07938270659422425</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06265122152544592</v>
+        <v>0.06297744215802863</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06572311300411862</v>
+        <v>0.06850363714831621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05185041141642709</v>
+        <v>0.05228101545783331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001607580752464462</v>
+        <v>0.001647899114458867</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1094778260381827</v>
+        <v>0.1085768326561611</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1180582426833515</v>
+        <v>0.1194566761806136</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09760742143366714</v>
+        <v>0.09513391387821594</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02663202994732983</v>
+        <v>0.02939402490874094</v>
       </c>
     </row>
     <row r="28">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13020</v>
+        <v>13997</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15558</v>
+        <v>16274</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2468</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32005</v>
+        <v>31730</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35576</v>
+        <v>37722</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10615</v>
+        <v>10501</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12037</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24378</v>
+        <v>23843</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17534</v>
+        <v>18150</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19510</v>
+        <v>18888</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2386</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45822</v>
+        <v>45748</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39767</v>
+        <v>39890</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39354</v>
+        <v>38531</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11901</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3909</v>
+        <v>3932</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21154</v>
+        <v>21283</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2563</v>
+        <v>1908</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1574</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15454</v>
+        <v>15452</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42516</v>
+        <v>42634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11396</v>
+        <v>12105</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10513</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17910</v>
+        <v>18298</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15164</v>
+        <v>14552</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9053</v>
+        <v>8481</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7669</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38467</v>
+        <v>38101</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34056</v>
+        <v>33307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24369</v>
+        <v>24218</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24966</v>
+        <v>24270</v>
       </c>
     </row>
     <row r="20">
@@ -1642,13 +1642,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10934</v>
+        <v>11394</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16197</v>
+        <v>15704</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7025</v>
+        <v>6984</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28813</v>
+        <v>27984</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32442</v>
+        <v>32926</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19360</v>
+        <v>19566</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3233</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>17220</v>
+        <v>16874</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14158</v>
+        <v>14824</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2707</v>
+        <v>2730</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1406</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35202</v>
+        <v>35016</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31316</v>
+        <v>33953</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12539</v>
+        <v>12147</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9421</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>22592</v>
+        <v>22334</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>22500</v>
+        <v>21890</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>26403</v>
+        <v>26977</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>18243</v>
+        <v>18187</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44603</v>
+        <v>45466</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>45335</v>
+        <v>43734</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>50665</v>
+        <v>51032</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>39759</v>
+        <v>39832</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>34889</v>
+        <v>35070</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>37624</v>
+        <v>39216</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28571</v>
+        <v>28808</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>797</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>60965</v>
+        <v>60463</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>67584</v>
+        <v>68384</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>53784</v>
+        <v>52421</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13199</v>
+        <v>14568</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
     </row>
     <row r="40">
